--- a/data/trans_bre/P68-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P68-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P68-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P68-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,91%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 4,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,85; 5,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,28; -0,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 30,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,08; 15,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,5; 19,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,68; -0,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; 167,43</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; -1,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; -1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 9,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,38; -4,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,27; 13,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,92; -5,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 51,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,85%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 10,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 12,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 10,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 69,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; 100,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 83,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 77,77</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; -0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 3,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; -0,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 8,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; -1,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; 13,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; -0,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,13; 48,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P68-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>40,16%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 30,42</t>
+          <t>-2,25; 27,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 167,43</t>
+          <t>-11,27; 151,11</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>45,71%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,3</t>
+          <t>0,81; 20,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 51,32</t>
+          <t>3,87; 152,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>33,18%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,17</t>
+          <t>-0,26; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 77,77</t>
+          <t>-2,97; 78,09</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>40,26%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,45</t>
+          <t>1,76; 15,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 48,52</t>
+          <t>9,63; 126,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P68-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 4,16</t>
+          <t>-13,06; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 5,66</t>
+          <t>-14,56; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,28; -0,51</t>
+          <t>-26,41; -1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 27,39</t>
+          <t>-2,94; 26,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 15,0</t>
+          <t>-41,3; 16,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 19,86</t>
+          <t>-40,54; 23,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,68; -0,13</t>
+          <t>-61,49; -5,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 151,11</t>
+          <t>-14,47; 143,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,04</t>
+          <t>-9,2; -0,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,95</t>
+          <t>-6,38; 3,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,39</t>
+          <t>-10,02; -1,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 20,29</t>
+          <t>0,63; 19,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,38; -4,33</t>
+          <t>-33,89; -3,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 13,07</t>
+          <t>-25,1; 13,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -5,47</t>
+          <t>-37,4; -6,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 152,01</t>
+          <t>2,65; 160,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,24</t>
+          <t>-3,12; 10,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 11,99</t>
+          <t>-1,21; 12,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 12,2</t>
+          <t>-0,76; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 10,05</t>
+          <t>0,06; 10,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 69,3</t>
+          <t>-15,2; 66,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 100,08</t>
+          <t>-7,49; 110,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 83,78</t>
+          <t>-3,18; 80,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 78,09</t>
+          <t>-0,9; 81,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,19</t>
+          <t>-6,32; 0,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,0</t>
+          <t>-4,04; 3,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,23; -0,21</t>
+          <t>-7,38; -0,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 15,0</t>
+          <t>2,1; 14,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -1,01</t>
+          <t>-24,28; 1,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 13,46</t>
+          <t>-16,22; 15,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -0,31</t>
+          <t>-27,97; -1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 126,74</t>
+          <t>11,17; 107,58</t>
         </is>
       </c>
     </row>
